--- a/Code/Results/Cases/Case_1_167/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_167/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.36528725612119</v>
+        <v>13.83295502832081</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.405763399531563</v>
+        <v>9.029302741564841</v>
       </c>
       <c r="E2">
-        <v>8.769015385970381</v>
+        <v>14.52394921611808</v>
       </c>
       <c r="F2">
-        <v>23.20291572944866</v>
+        <v>35.45959808072185</v>
       </c>
       <c r="G2">
-        <v>2.106775756320972</v>
+        <v>3.673527352855625</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.42355442074117</v>
+        <v>28.29257046083297</v>
       </c>
       <c r="J2">
-        <v>6.769856964655058</v>
+        <v>10.92615328302206</v>
       </c>
       <c r="K2">
-        <v>12.43676518687351</v>
+        <v>9.828957127267065</v>
       </c>
       <c r="L2">
-        <v>6.682833592309247</v>
+        <v>10.22711312151314</v>
       </c>
       <c r="M2">
-        <v>9.8761495563752</v>
+        <v>15.1612007403791</v>
       </c>
       <c r="N2">
-        <v>13.79570679431817</v>
+        <v>21.19685984026296</v>
       </c>
       <c r="O2">
-        <v>17.14445412984171</v>
+        <v>26.85140851968896</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.79813132053699</v>
+        <v>13.73190790567448</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.359487488567188</v>
+        <v>9.036440917061068</v>
       </c>
       <c r="E3">
-        <v>8.820681856731238</v>
+        <v>14.54924177700242</v>
       </c>
       <c r="F3">
-        <v>23.05692697451896</v>
+        <v>35.53472361598589</v>
       </c>
       <c r="G3">
-        <v>2.111232200765543</v>
+        <v>3.675274722463056</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.64006776134709</v>
+        <v>28.39013254910793</v>
       </c>
       <c r="J3">
-        <v>6.79706003143942</v>
+        <v>10.93712547443855</v>
       </c>
       <c r="K3">
-        <v>11.71067834205454</v>
+        <v>9.616825731504202</v>
       </c>
       <c r="L3">
-        <v>6.490176616551091</v>
+        <v>10.21213756028255</v>
       </c>
       <c r="M3">
-        <v>9.591623171566923</v>
+        <v>15.13785495415025</v>
       </c>
       <c r="N3">
-        <v>13.98070709517644</v>
+        <v>21.2542231130258</v>
       </c>
       <c r="O3">
-        <v>17.11216594782701</v>
+        <v>26.91901384590175</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.43755817643495</v>
+        <v>13.67165181720267</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.332524009556631</v>
+        <v>9.041710670109355</v>
       </c>
       <c r="E4">
-        <v>8.854219854041867</v>
+        <v>14.56572847883234</v>
       </c>
       <c r="F4">
-        <v>22.98286696039637</v>
+        <v>35.58749559921725</v>
       </c>
       <c r="G4">
-        <v>2.11406109964428</v>
+        <v>3.676405822599762</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.78098315019649</v>
+        <v>28.45382280442382</v>
       </c>
       <c r="J4">
-        <v>6.814493815651096</v>
+        <v>10.9442497856249</v>
       </c>
       <c r="K4">
-        <v>11.24091546585126</v>
+        <v>9.485617567018375</v>
       </c>
       <c r="L4">
-        <v>6.371212345364293</v>
+        <v>10.20419786411763</v>
       </c>
       <c r="M4">
-        <v>9.415668747667567</v>
+        <v>15.12532734825078</v>
       </c>
       <c r="N4">
-        <v>14.09710716400161</v>
+        <v>21.29113330254654</v>
       </c>
       <c r="O4">
-        <v>17.10401230441587</v>
+        <v>26.96525736011742</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.28770178552672</v>
+        <v>13.64756803470552</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.321906058115977</v>
+        <v>9.044081727047052</v>
       </c>
       <c r="E5">
-        <v>8.868341055353152</v>
+        <v>14.57268817304919</v>
       </c>
       <c r="F5">
-        <v>22.95652678556238</v>
+        <v>35.61067016915177</v>
       </c>
       <c r="G5">
-        <v>2.115237601099787</v>
+        <v>3.67688143652292</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.84037392146149</v>
+        <v>28.48073050152425</v>
       </c>
       <c r="J5">
-        <v>6.821782412453698</v>
+        <v>10.94725065884176</v>
       </c>
       <c r="K5">
-        <v>11.0435089395557</v>
+        <v>9.431982741765953</v>
       </c>
       <c r="L5">
-        <v>6.322632056573426</v>
+        <v>10.20128053669101</v>
       </c>
       <c r="M5">
-        <v>9.34375331614973</v>
+        <v>15.12068052877473</v>
       </c>
       <c r="N5">
-        <v>14.145263775606</v>
+        <v>21.30660039928879</v>
       </c>
       <c r="O5">
-        <v>17.10354013831841</v>
+        <v>26.98529135887691</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.26264782391214</v>
+        <v>13.64359800977278</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.320165436983531</v>
+        <v>9.044488959913144</v>
       </c>
       <c r="E6">
-        <v>8.870713245177122</v>
+        <v>14.57385841208157</v>
       </c>
       <c r="F6">
-        <v>22.9523825404639</v>
+        <v>35.61461908378153</v>
       </c>
       <c r="G6">
-        <v>2.115434401574927</v>
+        <v>3.676961299885624</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.85035341766391</v>
+        <v>28.48525612270984</v>
       </c>
       <c r="J6">
-        <v>6.823003814573991</v>
+        <v>10.94775485750336</v>
       </c>
       <c r="K6">
-        <v>11.01037057739899</v>
+        <v>9.423068895880188</v>
       </c>
       <c r="L6">
-        <v>6.314561262738789</v>
+        <v>10.20081540250624</v>
       </c>
       <c r="M6">
-        <v>9.33180209071674</v>
+        <v>15.11993671757403</v>
       </c>
       <c r="N6">
-        <v>14.15330425416834</v>
+        <v>21.30919445740331</v>
       </c>
       <c r="O6">
-        <v>17.10363139106827</v>
+        <v>26.9886897971171</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.43554871988315</v>
+        <v>13.67132507953527</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.332379308005279</v>
+        <v>9.041741740951675</v>
       </c>
       <c r="E7">
-        <v>8.854408461078217</v>
+        <v>14.56582136217594</v>
       </c>
       <c r="F7">
-        <v>22.98249628735592</v>
+        <v>35.58780138147187</v>
       </c>
       <c r="G7">
-        <v>2.114076869850882</v>
+        <v>3.676412177391334</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.7817762011168</v>
+        <v>28.45418182915046</v>
       </c>
       <c r="J7">
-        <v>6.814591365916073</v>
+        <v>10.94428986068787</v>
       </c>
       <c r="K7">
-        <v>11.23827728931</v>
+        <v>9.484894802506384</v>
       </c>
       <c r="L7">
-        <v>6.370557492961665</v>
+        <v>10.20415722862133</v>
       </c>
       <c r="M7">
-        <v>9.414699591641535</v>
+        <v>15.12526281901969</v>
       </c>
       <c r="N7">
-        <v>14.09775367387026</v>
+        <v>21.2913401711901</v>
       </c>
       <c r="O7">
-        <v>17.10399450802756</v>
+        <v>26.96552273110282</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.17239263607699</v>
+        <v>13.79775623940875</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.389509806456615</v>
+        <v>9.031580262648143</v>
       </c>
       <c r="E8">
-        <v>8.78645204733766</v>
+        <v>14.53247182903916</v>
       </c>
       <c r="F8">
-        <v>23.14930141772845</v>
+        <v>35.48412157861734</v>
       </c>
       <c r="G8">
-        <v>2.108293366835142</v>
+        <v>3.674117791634776</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.49652855768848</v>
+        <v>28.325424649498</v>
       </c>
       <c r="J8">
-        <v>6.779085081897658</v>
+        <v>10.92985625765289</v>
       </c>
       <c r="K8">
-        <v>12.19140255454645</v>
+        <v>9.756057165469006</v>
       </c>
       <c r="L8">
-        <v>6.616584311918204</v>
+        <v>10.22169054113851</v>
       </c>
       <c r="M8">
-        <v>9.778364927139885</v>
+        <v>15.15277854766332</v>
       </c>
       <c r="N8">
-        <v>13.85892186127872</v>
+        <v>21.21628889225676</v>
       </c>
       <c r="O8">
-        <v>17.13084870218574</v>
+        <v>26.87373586852126</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.51289951223141</v>
+        <v>14.05888569790821</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.512795446861919</v>
+        <v>9.018665034729356</v>
       </c>
       <c r="E9">
-        <v>8.667691741309525</v>
+        <v>14.4746398256394</v>
       </c>
       <c r="F9">
-        <v>23.60309672995908</v>
+        <v>35.33357722746194</v>
       </c>
       <c r="G9">
-        <v>2.097667392304875</v>
+        <v>3.670078333905328</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.00235642314672</v>
+        <v>28.10292396586171</v>
       </c>
       <c r="J9">
-        <v>6.715241555247011</v>
+        <v>10.90461363215726</v>
       </c>
       <c r="K9">
-        <v>13.86924506094664</v>
+        <v>10.27705905597197</v>
       </c>
       <c r="L9">
-        <v>7.090953973590615</v>
+        <v>10.26591857927906</v>
       </c>
       <c r="M9">
-        <v>10.47737274253862</v>
+        <v>15.22089105012549</v>
       </c>
       <c r="N9">
-        <v>13.41208877130515</v>
+        <v>21.08245844834338</v>
       </c>
       <c r="O9">
-        <v>17.27976854167925</v>
+        <v>26.73133856963921</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.42710942431334</v>
+        <v>14.25742883518287</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.609869407421561</v>
+        <v>9.013415581612126</v>
       </c>
       <c r="E10">
-        <v>8.589440449921373</v>
+        <v>14.43672616440555</v>
       </c>
       <c r="F10">
-        <v>24.01744667664552</v>
+        <v>35.25519902378308</v>
       </c>
       <c r="G10">
-        <v>2.090268185667247</v>
+        <v>3.6673880283178</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.68196681335077</v>
+        <v>27.95766078628438</v>
       </c>
       <c r="J10">
-        <v>6.671842080841155</v>
+        <v>10.88791793087864</v>
       </c>
       <c r="K10">
-        <v>14.9845820952971</v>
+        <v>10.6493079496198</v>
       </c>
       <c r="L10">
-        <v>7.431194331786541</v>
+        <v>10.3042515151134</v>
       </c>
       <c r="M10">
-        <v>10.97721518347839</v>
+        <v>15.27930591062698</v>
       </c>
       <c r="N10">
-        <v>13.09578090289661</v>
+        <v>20.99218924742073</v>
       </c>
       <c r="O10">
-        <v>17.45266260547954</v>
+        <v>26.64968645293398</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.82662191453716</v>
+        <v>14.34890721408077</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.655357675997179</v>
+        <v>9.011940093155081</v>
       </c>
       <c r="E11">
-        <v>8.555838192299348</v>
+        <v>14.42046393459394</v>
       </c>
       <c r="F11">
-        <v>24.22416738259656</v>
+        <v>35.22654688977462</v>
       </c>
       <c r="G11">
-        <v>2.086984021799513</v>
+        <v>3.666223788740454</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.5462156685062</v>
+        <v>27.89551486030535</v>
       </c>
       <c r="J11">
-        <v>6.652856951796051</v>
+        <v>10.8807208710867</v>
       </c>
       <c r="K11">
-        <v>15.46652428849182</v>
+        <v>10.81559702196956</v>
       </c>
       <c r="L11">
-        <v>7.583575827412196</v>
+        <v>10.32291980235561</v>
       </c>
       <c r="M11">
-        <v>11.20070191351198</v>
+        <v>15.30763898545591</v>
       </c>
       <c r="N11">
-        <v>12.95422224687579</v>
+        <v>20.95285582556063</v>
       </c>
       <c r="O11">
-        <v>17.54606586253565</v>
+        <v>26.61753590067325</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.97548977300223</v>
+        <v>14.38368916227374</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.672766573543844</v>
+        <v>9.01151186240171</v>
       </c>
       <c r="E12">
-        <v>8.543404810150561</v>
+        <v>14.41444688048059</v>
       </c>
       <c r="F12">
-        <v>24.30511127102682</v>
+        <v>35.21670399546806</v>
       </c>
       <c r="G12">
-        <v>2.085751584166809</v>
+        <v>3.665791445408932</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.49631685042362</v>
+        <v>27.87254658086765</v>
       </c>
       <c r="J12">
-        <v>6.645776642377228</v>
+        <v>10.87805248678856</v>
       </c>
       <c r="K12">
-        <v>15.64537786249914</v>
+        <v>10.87806911525004</v>
       </c>
       <c r="L12">
-        <v>7.640890902745413</v>
+        <v>10.33016241055252</v>
       </c>
       <c r="M12">
-        <v>11.28470380737165</v>
+        <v>15.31861560559364</v>
       </c>
       <c r="N12">
-        <v>12.90093033620373</v>
+        <v>20.93820887813637</v>
       </c>
       <c r="O12">
-        <v>17.58363084986628</v>
+        <v>26.6060798229</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.94353687836174</v>
+        <v>14.37619238404795</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.669009217081517</v>
+        <v>9.011598296992549</v>
       </c>
       <c r="E13">
-        <v>8.546069543927832</v>
+        <v>14.41573649363243</v>
       </c>
       <c r="F13">
-        <v>24.28755950550984</v>
+        <v>35.21877905213152</v>
       </c>
       <c r="G13">
-        <v>2.086016522529465</v>
+        <v>3.665884179597535</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.50699523747243</v>
+        <v>27.87746809346844</v>
       </c>
       <c r="J13">
-        <v>6.647296666935949</v>
+        <v>10.87862464028074</v>
       </c>
       <c r="K13">
-        <v>15.60702055143693</v>
+        <v>10.86463768394318</v>
       </c>
       <c r="L13">
-        <v>7.628564997768346</v>
+        <v>10.32859493530363</v>
       </c>
       <c r="M13">
-        <v>11.26664140812059</v>
+        <v>15.31624067744583</v>
       </c>
       <c r="N13">
-        <v>12.91239413203929</v>
+        <v>20.94135235790721</v>
       </c>
       <c r="O13">
-        <v>17.57544178606762</v>
+        <v>26.60851512458403</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.83891816174214</v>
+        <v>14.35176606639428</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.656786282967217</v>
+        <v>9.011902251032728</v>
       </c>
       <c r="E14">
-        <v>8.554809431208895</v>
+        <v>14.41996608308267</v>
       </c>
       <c r="F14">
-        <v>24.23077309149376</v>
+        <v>35.22571692682438</v>
       </c>
       <c r="G14">
-        <v>2.086882407157843</v>
+        <v>3.666188048893507</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.54207983253526</v>
+        <v>27.89361392658813</v>
       </c>
       <c r="J14">
-        <v>6.652272266575012</v>
+        <v>10.88050020073583</v>
       </c>
       <c r="K14">
-        <v>15.48131170436755</v>
+        <v>10.82074694520467</v>
       </c>
       <c r="L14">
-        <v>7.588299192117922</v>
+        <v>10.32351220343749</v>
       </c>
       <c r="M14">
-        <v>11.20762573967616</v>
+        <v>15.30853711101798</v>
       </c>
       <c r="N14">
-        <v>12.94983174078392</v>
+        <v>20.95164585291288</v>
       </c>
       <c r="O14">
-        <v>17.54911195075728</v>
+        <v>26.61657899675818</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.77451948645648</v>
+        <v>14.33682184748818</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.649323050814583</v>
+        <v>9.012105405561249</v>
       </c>
       <c r="E15">
-        <v>8.560200903167093</v>
+        <v>14.42257518853346</v>
       </c>
       <c r="F15">
-        <v>24.19633774373482</v>
+        <v>35.23009771993151</v>
       </c>
       <c r="G15">
-        <v>2.087414228589086</v>
+        <v>3.66637528713042</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.56376862742708</v>
+        <v>27.9035772759187</v>
       </c>
       <c r="J15">
-        <v>6.655334155289627</v>
+        <v>10.88165645011084</v>
       </c>
       <c r="K15">
-        <v>15.40383678329479</v>
+        <v>10.79379605290461</v>
       </c>
       <c r="L15">
-        <v>7.56358341592358</v>
+        <v>10.32042134685197</v>
       </c>
       <c r="M15">
-        <v>11.17139331965865</v>
+        <v>15.30385051687476</v>
       </c>
       <c r="N15">
-        <v>12.9728034832344</v>
+        <v>20.95798315047889</v>
       </c>
       <c r="O15">
-        <v>17.53327217928159</v>
+        <v>26.62161195454921</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.4006650731473</v>
+        <v>14.25147165343859</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.606922732340076</v>
+        <v>9.013530310003816</v>
       </c>
       <c r="E16">
-        <v>8.591676925600369</v>
+        <v>14.43780871270191</v>
       </c>
       <c r="F16">
-        <v>24.00430754085063</v>
+        <v>35.2572124319673</v>
       </c>
       <c r="G16">
-        <v>2.090484412233499</v>
+        <v>3.6674653098153</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.69104542759195</v>
+        <v>27.96180128086777</v>
       </c>
       <c r="J16">
-        <v>6.673098046100126</v>
+        <v>10.88839626257613</v>
       </c>
       <c r="K16">
-        <v>14.95257497070973</v>
+        <v>10.63837403303905</v>
       </c>
       <c r="L16">
-        <v>7.421183753280672</v>
+        <v>10.30305595390151</v>
       </c>
       <c r="M16">
-        <v>10.96252547413049</v>
+        <v>15.2774892197951</v>
       </c>
       <c r="N16">
-        <v>13.10507715599992</v>
+        <v>20.99479450864563</v>
       </c>
       <c r="O16">
-        <v>17.44686172859223</v>
+        <v>26.65188810098888</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.16707426038044</v>
+        <v>14.1993909209368</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.581246462246367</v>
+        <v>9.014637660601942</v>
       </c>
       <c r="E17">
-        <v>8.611500194456546</v>
+        <v>14.44740586320246</v>
       </c>
       <c r="F17">
-        <v>23.89120414426665</v>
+        <v>35.27564010931281</v>
       </c>
       <c r="G17">
-        <v>2.092388429054661</v>
+        <v>3.668149237856742</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.77173337751702</v>
+        <v>27.99852708480036</v>
       </c>
       <c r="J17">
-        <v>6.684189617663927</v>
+        <v>10.89263266529517</v>
       </c>
       <c r="K17">
-        <v>14.66923174986171</v>
+        <v>10.54220310779721</v>
       </c>
       <c r="L17">
-        <v>7.333179596417136</v>
+        <v>10.29271548059453</v>
       </c>
       <c r="M17">
-        <v>10.83334378280636</v>
+        <v>15.26176427223245</v>
       </c>
       <c r="N17">
-        <v>13.18680462743402</v>
+        <v>21.01781953508386</v>
       </c>
       <c r="O17">
-        <v>17.39768380613222</v>
+        <v>26.67174093165744</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.03118140034048</v>
+        <v>14.16954620732965</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.566603689521189</v>
+        <v>9.015360514018774</v>
       </c>
       <c r="E18">
-        <v>8.62308948009016</v>
+        <v>14.45301862350285</v>
       </c>
       <c r="F18">
-        <v>23.8278639503173</v>
+        <v>35.28689834530853</v>
       </c>
       <c r="G18">
-        <v>2.093491300938482</v>
+        <v>3.668548226845237</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.81907922774805</v>
+        <v>28.02002122586234</v>
       </c>
       <c r="J18">
-        <v>6.690640490188677</v>
+        <v>10.89510679787044</v>
       </c>
       <c r="K18">
-        <v>14.50386560514139</v>
+        <v>10.4866044684046</v>
       </c>
       <c r="L18">
-        <v>7.282338743025342</v>
+        <v>10.28688395474272</v>
       </c>
       <c r="M18">
-        <v>10.75867890895067</v>
+        <v>15.25288569246689</v>
       </c>
       <c r="N18">
-        <v>13.23403293107195</v>
+        <v>21.0312258668915</v>
       </c>
       <c r="O18">
-        <v>17.37078237739634</v>
+        <v>26.68362973060491</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.98490857351637</v>
+        <v>14.15946110370637</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.561667690639843</v>
+        <v>9.015620040399041</v>
       </c>
       <c r="E19">
-        <v>8.627045488783315</v>
+        <v>14.4549349508096</v>
       </c>
       <c r="F19">
-        <v>23.80671104319511</v>
+        <v>35.29082338745622</v>
       </c>
       <c r="G19">
-        <v>2.093866058759149</v>
+        <v>3.668684282714274</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.83526850469912</v>
+        <v>28.02736241981515</v>
       </c>
       <c r="J19">
-        <v>6.69283689054825</v>
+        <v>10.89595093851374</v>
       </c>
       <c r="K19">
-        <v>14.44746401361101</v>
+        <v>10.46773288627421</v>
       </c>
       <c r="L19">
-        <v>7.265087999504513</v>
+        <v>10.28492953760762</v>
       </c>
       <c r="M19">
-        <v>10.73333851437877</v>
+        <v>15.24990823347096</v>
       </c>
       <c r="N19">
-        <v>13.25006220025609</v>
+        <v>21.03579303954563</v>
       </c>
       <c r="O19">
-        <v>17.361909488482</v>
+        <v>26.68773577219453</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.19210005923617</v>
+        <v>14.204923728222</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.583966807240468</v>
+        <v>9.014510892416443</v>
       </c>
       <c r="E20">
-        <v>8.60937054243009</v>
+        <v>14.44637463644687</v>
       </c>
       <c r="F20">
-        <v>23.90306649242599</v>
+        <v>35.27361023307883</v>
       </c>
       <c r="G20">
-        <v>2.092184946927049</v>
+        <v>3.668075852058497</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.76304662174718</v>
+        <v>27.9945792281736</v>
       </c>
       <c r="J20">
-        <v>6.683001522456807</v>
+        <v>10.89217781711099</v>
       </c>
       <c r="K20">
-        <v>14.69964190586227</v>
+        <v>10.55247046985225</v>
       </c>
       <c r="L20">
-        <v>7.342571224323318</v>
+        <v>10.29380425743</v>
       </c>
       <c r="M20">
-        <v>10.847133476906</v>
+        <v>15.26342107957913</v>
       </c>
       <c r="N20">
-        <v>13.17808189958531</v>
+        <v>21.01535162528543</v>
       </c>
       <c r="O20">
-        <v>17.40277505388996</v>
+        <v>26.66957891847353</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.86971330888083</v>
+        <v>14.35893704497433</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.660371536217546</v>
+        <v>9.011809436331976</v>
       </c>
       <c r="E21">
-        <v>8.552234379021046</v>
+        <v>14.41871992490399</v>
       </c>
       <c r="F21">
-        <v>24.24738005470594</v>
+        <v>35.22365177473768</v>
       </c>
       <c r="G21">
-        <v>2.086627776355841</v>
+        <v>3.666098563964639</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.5317331420179</v>
+        <v>27.88885617552967</v>
       </c>
       <c r="J21">
-        <v>6.650807854942976</v>
+        <v>10.87994775841296</v>
       </c>
       <c r="K21">
-        <v>15.51833432537194</v>
+        <v>10.83365268803435</v>
       </c>
       <c r="L21">
-        <v>7.600137102984935</v>
+        <v>10.32500045028205</v>
       </c>
       <c r="M21">
-        <v>11.2249776081259</v>
+        <v>15.31079316361629</v>
       </c>
       <c r="N21">
-        <v>12.93882708625662</v>
+        <v>20.94861568814428</v>
       </c>
       <c r="O21">
-        <v>17.55678551299608</v>
+        <v>26.61419093433157</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.29845363624248</v>
+        <v>14.46040394523988</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.7113723712493</v>
+        <v>9.010804208807686</v>
       </c>
       <c r="E22">
-        <v>8.516591439693812</v>
+        <v>14.4014681670043</v>
       </c>
       <c r="F22">
-        <v>24.48794773435837</v>
+        <v>35.1968706876541</v>
       </c>
       <c r="G22">
-        <v>2.083060869263167</v>
+        <v>3.664855986422603</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.38937876852035</v>
+        <v>27.82305314099645</v>
       </c>
       <c r="J22">
-        <v>6.630402537741392</v>
+        <v>10.87228676062731</v>
       </c>
       <c r="K22">
-        <v>16.03214553102414</v>
+        <v>11.01449426066945</v>
       </c>
       <c r="L22">
-        <v>7.766190234783216</v>
+        <v>10.34639750182378</v>
       </c>
       <c r="M22">
-        <v>11.4682360515766</v>
+        <v>15.34319343834105</v>
       </c>
       <c r="N22">
-        <v>12.78427520802737</v>
+        <v>20.90644357227813</v>
       </c>
       <c r="O22">
-        <v>17.67026748427606</v>
+        <v>26.58218063881876</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.07093658503478</v>
+        <v>14.40618353164785</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.684057246665654</v>
+        <v>9.011271390474519</v>
       </c>
       <c r="E23">
-        <v>8.535457780531978</v>
+        <v>14.41060069640669</v>
       </c>
       <c r="F23">
-        <v>24.35811811279493</v>
+        <v>35.21062723712166</v>
       </c>
       <c r="G23">
-        <v>2.084958836381235</v>
+        <v>3.665514639713864</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.46452389699365</v>
+        <v>27.85787240328179</v>
       </c>
       <c r="J23">
-        <v>6.641235095806866</v>
+        <v>10.87634527231929</v>
       </c>
       <c r="K23">
-        <v>15.75985464844839</v>
+        <v>10.918262164042</v>
       </c>
       <c r="L23">
-        <v>7.67778642785054</v>
+        <v>10.33488644229742</v>
       </c>
       <c r="M23">
-        <v>11.33876194015803</v>
+        <v>15.32577094911735</v>
       </c>
       <c r="N23">
-        <v>12.86660395669438</v>
+        <v>20.92881988049293</v>
       </c>
       <c r="O23">
-        <v>17.60850280344539</v>
+        <v>26.59888168581204</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.1807908690811</v>
+        <v>14.2024220413439</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.582736568478269</v>
+        <v>9.014567935699734</v>
       </c>
       <c r="E24">
-        <v>8.610332758444287</v>
+        <v>14.44684055740348</v>
       </c>
       <c r="F24">
-        <v>23.89769828133892</v>
+        <v>35.27452587207969</v>
       </c>
       <c r="G24">
-        <v>2.092276915529668</v>
+        <v>3.668109011740916</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.76697092753976</v>
+        <v>27.99636287045945</v>
       </c>
       <c r="J24">
-        <v>6.683538429245063</v>
+        <v>10.89238333382542</v>
       </c>
       <c r="K24">
-        <v>14.68590116334012</v>
+        <v>10.54782955239953</v>
       </c>
       <c r="L24">
-        <v>7.338326032466255</v>
+        <v>10.29331166807654</v>
       </c>
       <c r="M24">
-        <v>10.84090038629498</v>
+        <v>15.26267153225045</v>
       </c>
       <c r="N24">
-        <v>13.18202468913693</v>
+        <v>21.01646684098922</v>
       </c>
       <c r="O24">
-        <v>17.40046903413244</v>
+        <v>26.67055488463982</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.16224801952882</v>
+        <v>13.98696826320061</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.47827481569605</v>
+        <v>9.021411834761617</v>
       </c>
       <c r="E25">
-        <v>8.698251578531544</v>
+        <v>14.48947874396593</v>
       </c>
       <c r="F25">
-        <v>23.46635786190777</v>
+        <v>35.36864701960896</v>
       </c>
       <c r="G25">
-        <v>2.100468264104673</v>
+        <v>3.671122181415791</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.12877847191758</v>
+        <v>28.15991340799543</v>
       </c>
       <c r="J25">
-        <v>6.731895958598799</v>
+        <v>10.9111163659411</v>
       </c>
       <c r="K25">
-        <v>13.43593909583701</v>
+        <v>10.13768938658819</v>
       </c>
       <c r="L25">
-        <v>6.963855271109326</v>
+        <v>10.25291590449301</v>
       </c>
       <c r="M25">
-        <v>10.29034150567318</v>
+        <v>15.20097497992873</v>
       </c>
       <c r="N25">
-        <v>13.530779702421</v>
+        <v>21.11724271355905</v>
       </c>
       <c r="O25">
-        <v>17.22866948573409</v>
+        <v>26.76583050629356</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_167/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_167/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.83295502832081</v>
+        <v>11.36528725612116</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.029302741564841</v>
+        <v>5.405763399531663</v>
       </c>
       <c r="E2">
-        <v>14.52394921611808</v>
+        <v>8.769015385970379</v>
       </c>
       <c r="F2">
-        <v>35.45959808072185</v>
+        <v>23.20291572944846</v>
       </c>
       <c r="G2">
-        <v>3.673527352855625</v>
+        <v>2.106775756320836</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.29257046083297</v>
+        <v>17.42355442074102</v>
       </c>
       <c r="J2">
-        <v>10.92615328302206</v>
+        <v>6.76985696465509</v>
       </c>
       <c r="K2">
-        <v>9.828957127267065</v>
+        <v>12.43676518687357</v>
       </c>
       <c r="L2">
-        <v>10.22711312151314</v>
+        <v>6.682833592309197</v>
       </c>
       <c r="M2">
-        <v>15.1612007403791</v>
+        <v>9.876149556375131</v>
       </c>
       <c r="N2">
-        <v>21.19685984026296</v>
+        <v>13.79570679431807</v>
       </c>
       <c r="O2">
-        <v>26.85140851968896</v>
+        <v>17.1444541298415</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.73190790567448</v>
+        <v>10.79813132053702</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.036440917061068</v>
+        <v>5.359487488567124</v>
       </c>
       <c r="E3">
-        <v>14.54924177700242</v>
+        <v>8.820681856731238</v>
       </c>
       <c r="F3">
-        <v>35.53472361598589</v>
+        <v>23.05692697451886</v>
       </c>
       <c r="G3">
-        <v>3.675274722463056</v>
+        <v>2.111232200765677</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.39013254910793</v>
+        <v>17.64006776134709</v>
       </c>
       <c r="J3">
-        <v>10.93712547443855</v>
+        <v>6.79706003143942</v>
       </c>
       <c r="K3">
-        <v>9.616825731504202</v>
+        <v>11.71067834205457</v>
       </c>
       <c r="L3">
-        <v>10.21213756028255</v>
+        <v>6.490176616551032</v>
       </c>
       <c r="M3">
-        <v>15.13785495415025</v>
+        <v>9.591623171566898</v>
       </c>
       <c r="N3">
-        <v>21.2542231130258</v>
+        <v>13.98070709517641</v>
       </c>
       <c r="O3">
-        <v>26.91901384590175</v>
+        <v>17.11216594782693</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.67165181720267</v>
+        <v>10.43755817643503</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.041710670109355</v>
+        <v>5.332524009556808</v>
       </c>
       <c r="E4">
-        <v>14.56572847883234</v>
+        <v>8.854219854042064</v>
       </c>
       <c r="F4">
-        <v>35.58749559921725</v>
+        <v>22.98286696039619</v>
       </c>
       <c r="G4">
-        <v>3.676405822599762</v>
+        <v>2.114061099644412</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.45382280442382</v>
+        <v>17.78098315019642</v>
       </c>
       <c r="J4">
-        <v>10.9442497856249</v>
+        <v>6.814493815651194</v>
       </c>
       <c r="K4">
-        <v>9.485617567018375</v>
+        <v>11.2409154658513</v>
       </c>
       <c r="L4">
-        <v>10.20419786411763</v>
+        <v>6.371212345364303</v>
       </c>
       <c r="M4">
-        <v>15.12532734825078</v>
+        <v>9.415668747667562</v>
       </c>
       <c r="N4">
-        <v>21.29113330254654</v>
+        <v>14.09710716400151</v>
       </c>
       <c r="O4">
-        <v>26.96525736011742</v>
+        <v>17.10401230441575</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.64756803470552</v>
+        <v>10.28770178552671</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.044081727047052</v>
+        <v>5.321906058116143</v>
       </c>
       <c r="E5">
-        <v>14.57268817304919</v>
+        <v>8.868341055353154</v>
       </c>
       <c r="F5">
-        <v>35.61067016915177</v>
+        <v>22.95652678556232</v>
       </c>
       <c r="G5">
-        <v>3.67688143652292</v>
+        <v>2.115237601100055</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.48073050152425</v>
+        <v>17.84037392146142</v>
       </c>
       <c r="J5">
-        <v>10.94725065884176</v>
+        <v>6.821782412453664</v>
       </c>
       <c r="K5">
-        <v>9.431982741765953</v>
+        <v>11.04350893955576</v>
       </c>
       <c r="L5">
-        <v>10.20128053669101</v>
+        <v>6.322632056573398</v>
       </c>
       <c r="M5">
-        <v>15.12068052877473</v>
+        <v>9.343753316149691</v>
       </c>
       <c r="N5">
-        <v>21.30660039928879</v>
+        <v>14.145263775606</v>
       </c>
       <c r="O5">
-        <v>26.98529135887691</v>
+        <v>17.10354013831833</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.64359800977278</v>
+        <v>10.26264782391217</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.044488959913144</v>
+        <v>5.320165436983486</v>
       </c>
       <c r="E6">
-        <v>14.57385841208157</v>
+        <v>8.870713245177189</v>
       </c>
       <c r="F6">
-        <v>35.61461908378153</v>
+        <v>22.95238254046375</v>
       </c>
       <c r="G6">
-        <v>3.676961299885624</v>
+        <v>2.115434401574927</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.48525612270984</v>
+        <v>17.85035341766392</v>
       </c>
       <c r="J6">
-        <v>10.94775485750336</v>
+        <v>6.823003814574093</v>
       </c>
       <c r="K6">
-        <v>9.423068895880188</v>
+        <v>11.01037057739903</v>
       </c>
       <c r="L6">
-        <v>10.20081540250624</v>
+        <v>6.314561262738748</v>
       </c>
       <c r="M6">
-        <v>15.11993671757403</v>
+        <v>9.33180209071674</v>
       </c>
       <c r="N6">
-        <v>21.30919445740331</v>
+        <v>14.15330425416831</v>
       </c>
       <c r="O6">
-        <v>26.9886897971171</v>
+        <v>17.10363139106819</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.67132507953527</v>
+        <v>10.43554871988316</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.041741740951675</v>
+        <v>5.332379308005279</v>
       </c>
       <c r="E7">
-        <v>14.56582136217594</v>
+        <v>8.854408461078217</v>
       </c>
       <c r="F7">
-        <v>35.58780138147187</v>
+        <v>22.98249628735592</v>
       </c>
       <c r="G7">
-        <v>3.676412177391334</v>
+        <v>2.114076869850882</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.45418182915046</v>
+        <v>17.78177620111671</v>
       </c>
       <c r="J7">
-        <v>10.94428986068787</v>
+        <v>6.814591365916073</v>
       </c>
       <c r="K7">
-        <v>9.484894802506384</v>
+        <v>11.23827728930995</v>
       </c>
       <c r="L7">
-        <v>10.20415722862133</v>
+        <v>6.370557492961742</v>
       </c>
       <c r="M7">
-        <v>15.12526281901969</v>
+        <v>9.414699591641551</v>
       </c>
       <c r="N7">
-        <v>21.2913401711901</v>
+        <v>14.09775367387022</v>
       </c>
       <c r="O7">
-        <v>26.96552273110282</v>
+        <v>17.10399450802756</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.79775623940875</v>
+        <v>11.17239263607701</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.031580262648143</v>
+        <v>5.389509806456911</v>
       </c>
       <c r="E8">
-        <v>14.53247182903916</v>
+        <v>8.786452047337788</v>
       </c>
       <c r="F8">
-        <v>35.48412157861734</v>
+        <v>23.14930141772867</v>
       </c>
       <c r="G8">
-        <v>3.674117791634776</v>
+        <v>2.108293366834873</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.325424649498</v>
+        <v>17.49652855768858</v>
       </c>
       <c r="J8">
-        <v>10.92985625765289</v>
+        <v>6.779085081897694</v>
       </c>
       <c r="K8">
-        <v>9.756057165469006</v>
+        <v>12.19140255454645</v>
       </c>
       <c r="L8">
-        <v>10.22169054113851</v>
+        <v>6.616584311918257</v>
       </c>
       <c r="M8">
-        <v>15.15277854766332</v>
+        <v>9.778364927139945</v>
       </c>
       <c r="N8">
-        <v>21.21628889225676</v>
+        <v>13.85892186127878</v>
       </c>
       <c r="O8">
-        <v>26.87373586852126</v>
+        <v>17.13084870218582</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.05888569790821</v>
+        <v>12.51289951223144</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.018665034729356</v>
+        <v>5.512795446862043</v>
       </c>
       <c r="E9">
-        <v>14.4746398256394</v>
+        <v>8.667691741309595</v>
       </c>
       <c r="F9">
-        <v>35.33357722746194</v>
+        <v>23.60309672995905</v>
       </c>
       <c r="G9">
-        <v>3.670078333905328</v>
+        <v>2.097667392304875</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.10292396586171</v>
+        <v>17.00235642314673</v>
       </c>
       <c r="J9">
-        <v>10.90461363215726</v>
+        <v>6.715241555247076</v>
       </c>
       <c r="K9">
-        <v>10.27705905597197</v>
+        <v>13.86924506094667</v>
       </c>
       <c r="L9">
-        <v>10.26591857927906</v>
+        <v>7.090953973590593</v>
       </c>
       <c r="M9">
-        <v>15.22089105012549</v>
+        <v>10.47737274253863</v>
       </c>
       <c r="N9">
-        <v>21.08245844834338</v>
+        <v>13.41208877130518</v>
       </c>
       <c r="O9">
-        <v>26.73133856963921</v>
+        <v>17.27976854167921</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.25742883518287</v>
+        <v>13.42710942431335</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.013415581612126</v>
+        <v>5.609869407421367</v>
       </c>
       <c r="E10">
-        <v>14.43672616440555</v>
+        <v>8.589440449921442</v>
       </c>
       <c r="F10">
-        <v>35.25519902378308</v>
+        <v>24.01744667664547</v>
       </c>
       <c r="G10">
-        <v>3.6673880283178</v>
+        <v>2.090268185667382</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>27.95766078628438</v>
+        <v>16.68196681335083</v>
       </c>
       <c r="J10">
-        <v>10.88791793087864</v>
+        <v>6.671842080841321</v>
       </c>
       <c r="K10">
-        <v>10.6493079496198</v>
+        <v>14.98458209529715</v>
       </c>
       <c r="L10">
-        <v>10.3042515151134</v>
+        <v>7.431194331786537</v>
       </c>
       <c r="M10">
-        <v>15.27930591062698</v>
+        <v>10.97721518347839</v>
       </c>
       <c r="N10">
-        <v>20.99218924742073</v>
+        <v>13.09578090289668</v>
       </c>
       <c r="O10">
-        <v>26.64968645293398</v>
+        <v>17.45266260547955</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.34890721408077</v>
+        <v>13.8266219145372</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.011940093155081</v>
+        <v>5.655357675997232</v>
       </c>
       <c r="E11">
-        <v>14.42046393459394</v>
+        <v>8.555838192299348</v>
       </c>
       <c r="F11">
-        <v>35.22654688977462</v>
+        <v>24.22416738259645</v>
       </c>
       <c r="G11">
-        <v>3.666223788740454</v>
+        <v>2.086984021799381</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>27.89551486030535</v>
+        <v>16.54621566850611</v>
       </c>
       <c r="J11">
-        <v>10.8807208710867</v>
+        <v>6.652856951796017</v>
       </c>
       <c r="K11">
-        <v>10.81559702196956</v>
+        <v>15.46652428849184</v>
       </c>
       <c r="L11">
-        <v>10.32291980235561</v>
+        <v>7.583575827412127</v>
       </c>
       <c r="M11">
-        <v>15.30763898545591</v>
+        <v>11.20070191351197</v>
       </c>
       <c r="N11">
-        <v>20.95285582556063</v>
+        <v>12.95422224687569</v>
       </c>
       <c r="O11">
-        <v>26.61753590067325</v>
+        <v>17.54606586253552</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.38368916227374</v>
+        <v>13.97548977300225</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.01151186240171</v>
+        <v>5.672766573544026</v>
       </c>
       <c r="E12">
-        <v>14.41444688048059</v>
+        <v>8.543404810150692</v>
       </c>
       <c r="F12">
-        <v>35.21670399546806</v>
+        <v>24.30511127102696</v>
       </c>
       <c r="G12">
-        <v>3.665791445408932</v>
+        <v>2.085751584166942</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>27.87254658086765</v>
+        <v>16.49631685042371</v>
       </c>
       <c r="J12">
-        <v>10.87805248678856</v>
+        <v>6.645776642377194</v>
       </c>
       <c r="K12">
-        <v>10.87806911525004</v>
+        <v>15.64537786249913</v>
       </c>
       <c r="L12">
-        <v>10.33016241055252</v>
+        <v>7.64089090274542</v>
       </c>
       <c r="M12">
-        <v>15.31861560559364</v>
+        <v>11.28470380737169</v>
       </c>
       <c r="N12">
-        <v>20.93820887813637</v>
+        <v>12.90093033620373</v>
       </c>
       <c r="O12">
-        <v>26.6060798229</v>
+        <v>17.58363084986629</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.37619238404795</v>
+        <v>13.94353687836174</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.011598296992549</v>
+        <v>5.669009217081529</v>
       </c>
       <c r="E13">
-        <v>14.41573649363243</v>
+        <v>8.546069543927699</v>
       </c>
       <c r="F13">
-        <v>35.21877905213152</v>
+        <v>24.2875595055096</v>
       </c>
       <c r="G13">
-        <v>3.665884179597535</v>
+        <v>2.086016522529598</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>27.87746809346844</v>
+        <v>16.5069952374723</v>
       </c>
       <c r="J13">
-        <v>10.87862464028074</v>
+        <v>6.647296666935916</v>
       </c>
       <c r="K13">
-        <v>10.86463768394318</v>
+        <v>15.60702055143702</v>
       </c>
       <c r="L13">
-        <v>10.32859493530363</v>
+        <v>7.628564997768279</v>
       </c>
       <c r="M13">
-        <v>15.31624067744583</v>
+        <v>11.26664140812052</v>
       </c>
       <c r="N13">
-        <v>20.94135235790721</v>
+        <v>12.91239413203919</v>
       </c>
       <c r="O13">
-        <v>26.60851512458403</v>
+        <v>17.5754417860674</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.35176606639428</v>
+        <v>13.83891816174219</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.011902251032728</v>
+        <v>5.656786282967177</v>
       </c>
       <c r="E14">
-        <v>14.41996608308267</v>
+        <v>8.554809431209096</v>
       </c>
       <c r="F14">
-        <v>35.22571692682438</v>
+        <v>24.23077309149371</v>
       </c>
       <c r="G14">
-        <v>3.666188048893507</v>
+        <v>2.086882407157576</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>27.89361392658813</v>
+        <v>16.54207983253534</v>
       </c>
       <c r="J14">
-        <v>10.88050020073583</v>
+        <v>6.652272266575178</v>
       </c>
       <c r="K14">
-        <v>10.82074694520467</v>
+        <v>15.48131170436758</v>
       </c>
       <c r="L14">
-        <v>10.32351220343749</v>
+        <v>7.58829919211791</v>
       </c>
       <c r="M14">
-        <v>15.30853711101798</v>
+        <v>11.20762573967618</v>
       </c>
       <c r="N14">
-        <v>20.95164585291288</v>
+        <v>12.94983174078392</v>
       </c>
       <c r="O14">
-        <v>26.61657899675818</v>
+        <v>17.54911195075721</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.33682184748818</v>
+        <v>13.77451948645648</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.012105405561249</v>
+        <v>5.649323050814718</v>
       </c>
       <c r="E15">
-        <v>14.42257518853346</v>
+        <v>8.56020090316729</v>
       </c>
       <c r="F15">
-        <v>35.23009771993151</v>
+        <v>24.19633774373472</v>
       </c>
       <c r="G15">
-        <v>3.66637528713042</v>
+        <v>2.087414228589085</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>27.9035772759187</v>
+        <v>16.56376862742706</v>
       </c>
       <c r="J15">
-        <v>10.88165645011084</v>
+        <v>6.655334155289629</v>
       </c>
       <c r="K15">
-        <v>10.79379605290461</v>
+        <v>15.40383678329486</v>
       </c>
       <c r="L15">
-        <v>10.32042134685197</v>
+        <v>7.56358341592356</v>
       </c>
       <c r="M15">
-        <v>15.30385051687476</v>
+        <v>11.17139331965863</v>
       </c>
       <c r="N15">
-        <v>20.95798315047889</v>
+        <v>12.97280348323436</v>
       </c>
       <c r="O15">
-        <v>26.62161195454921</v>
+        <v>17.53327217928143</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.25147165343859</v>
+        <v>13.40066507314731</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.013530310003816</v>
+        <v>5.606922732340018</v>
       </c>
       <c r="E16">
-        <v>14.43780871270191</v>
+        <v>8.591676925600371</v>
       </c>
       <c r="F16">
-        <v>35.2572124319673</v>
+        <v>24.00430754085055</v>
       </c>
       <c r="G16">
-        <v>3.6674653098153</v>
+        <v>2.090484412233634</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>27.96180128086777</v>
+        <v>16.69104542759187</v>
       </c>
       <c r="J16">
-        <v>10.88839626257613</v>
+        <v>6.673098046100094</v>
       </c>
       <c r="K16">
-        <v>10.63837403303905</v>
+        <v>14.95257497070975</v>
       </c>
       <c r="L16">
-        <v>10.30305595390151</v>
+        <v>7.421183753280625</v>
       </c>
       <c r="M16">
-        <v>15.2774892197951</v>
+        <v>10.96252547413048</v>
       </c>
       <c r="N16">
-        <v>20.99479450864563</v>
+        <v>13.10507715599988</v>
       </c>
       <c r="O16">
-        <v>26.65188810098888</v>
+        <v>17.44686172859214</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.1993909209368</v>
+        <v>13.16707426038048</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.014637660601942</v>
+        <v>5.581246462246485</v>
       </c>
       <c r="E17">
-        <v>14.44740586320246</v>
+        <v>8.611500194456749</v>
       </c>
       <c r="F17">
-        <v>35.27564010931281</v>
+        <v>23.89120414426663</v>
       </c>
       <c r="G17">
-        <v>3.668149237856742</v>
+        <v>2.092388429054662</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>27.99852708480036</v>
+        <v>16.77173337751713</v>
       </c>
       <c r="J17">
-        <v>10.89263266529517</v>
+        <v>6.684189617664027</v>
       </c>
       <c r="K17">
-        <v>10.54220310779721</v>
+        <v>14.66923174986177</v>
       </c>
       <c r="L17">
-        <v>10.29271548059453</v>
+        <v>7.333179596417097</v>
       </c>
       <c r="M17">
-        <v>15.26176427223245</v>
+        <v>10.83334378280638</v>
       </c>
       <c r="N17">
-        <v>21.01781953508386</v>
+        <v>13.18680462743405</v>
       </c>
       <c r="O17">
-        <v>26.67174093165744</v>
+        <v>17.39768380613218</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.16954620732965</v>
+        <v>13.03118140034053</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.015360514018774</v>
+        <v>5.566603689521152</v>
       </c>
       <c r="E18">
-        <v>14.45301862350285</v>
+        <v>8.623089480090291</v>
       </c>
       <c r="F18">
-        <v>35.28689834530853</v>
+        <v>23.82786395031723</v>
       </c>
       <c r="G18">
-        <v>3.668548226845237</v>
+        <v>2.093491300938349</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.02002122586234</v>
+        <v>16.81907922774806</v>
       </c>
       <c r="J18">
-        <v>10.89510679787044</v>
+        <v>6.690640490188813</v>
       </c>
       <c r="K18">
-        <v>10.4866044684046</v>
+        <v>14.50386560514141</v>
       </c>
       <c r="L18">
-        <v>10.28688395474272</v>
+        <v>7.282338743025322</v>
       </c>
       <c r="M18">
-        <v>15.25288569246689</v>
+        <v>10.75867890895071</v>
       </c>
       <c r="N18">
-        <v>21.0312258668915</v>
+        <v>13.23403293107192</v>
       </c>
       <c r="O18">
-        <v>26.68362973060491</v>
+        <v>17.3707823773963</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.15946110370637</v>
+        <v>12.98490857351638</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.015620040399041</v>
+        <v>5.56166769063981</v>
       </c>
       <c r="E19">
-        <v>14.4549349508096</v>
+        <v>8.627045488783381</v>
       </c>
       <c r="F19">
-        <v>35.29082338745622</v>
+        <v>23.80671104319499</v>
       </c>
       <c r="G19">
-        <v>3.668684282714274</v>
+        <v>2.093866058759151</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.02736241981515</v>
+        <v>16.83526850469906</v>
       </c>
       <c r="J19">
-        <v>10.89595093851374</v>
+        <v>6.69283689054835</v>
       </c>
       <c r="K19">
-        <v>10.46773288627421</v>
+        <v>14.44746401361105</v>
       </c>
       <c r="L19">
-        <v>10.28492953760762</v>
+        <v>7.265087999504498</v>
       </c>
       <c r="M19">
-        <v>15.24990823347096</v>
+        <v>10.73333851437876</v>
       </c>
       <c r="N19">
-        <v>21.03579303954563</v>
+        <v>13.25006220025609</v>
       </c>
       <c r="O19">
-        <v>26.68773577219453</v>
+        <v>17.36190948848193</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.204923728222</v>
+        <v>13.19210005923619</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.014510892416443</v>
+        <v>5.583966807240363</v>
       </c>
       <c r="E20">
-        <v>14.44637463644687</v>
+        <v>8.609370542430089</v>
       </c>
       <c r="F20">
-        <v>35.27361023307883</v>
+        <v>23.9030664924259</v>
       </c>
       <c r="G20">
-        <v>3.668075852058497</v>
+        <v>2.092184946927315</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>27.9945792281736</v>
+        <v>16.76304662174723</v>
       </c>
       <c r="J20">
-        <v>10.89217781711099</v>
+        <v>6.683001522456873</v>
       </c>
       <c r="K20">
-        <v>10.55247046985225</v>
+        <v>14.69964190586227</v>
       </c>
       <c r="L20">
-        <v>10.29380425743</v>
+        <v>7.342571224323286</v>
       </c>
       <c r="M20">
-        <v>15.26342107957913</v>
+        <v>10.84713347690598</v>
       </c>
       <c r="N20">
-        <v>21.01535162528543</v>
+        <v>13.17808189958531</v>
       </c>
       <c r="O20">
-        <v>26.66957891847353</v>
+        <v>17.40277505388991</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.35893704497433</v>
+        <v>13.86971330888082</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.011809436331976</v>
+        <v>5.660371536217499</v>
       </c>
       <c r="E21">
-        <v>14.41871992490399</v>
+        <v>8.552234379021177</v>
       </c>
       <c r="F21">
-        <v>35.22365177473768</v>
+        <v>24.24738005470591</v>
       </c>
       <c r="G21">
-        <v>3.666098563964639</v>
+        <v>2.086627776355975</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>27.88885617552967</v>
+        <v>16.53173314201788</v>
       </c>
       <c r="J21">
-        <v>10.87994775841296</v>
+        <v>6.650807854943079</v>
       </c>
       <c r="K21">
-        <v>10.83365268803435</v>
+        <v>15.51833432537196</v>
       </c>
       <c r="L21">
-        <v>10.32500045028205</v>
+        <v>7.60013710298497</v>
       </c>
       <c r="M21">
-        <v>15.31079316361629</v>
+        <v>11.22497760812591</v>
       </c>
       <c r="N21">
-        <v>20.94861568814428</v>
+        <v>12.93882708625662</v>
       </c>
       <c r="O21">
-        <v>26.61419093433157</v>
+        <v>17.55678551299606</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.46040394523988</v>
+        <v>14.29845363624249</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.010804208807686</v>
+        <v>5.711372371249288</v>
       </c>
       <c r="E22">
-        <v>14.4014681670043</v>
+        <v>8.516591439693874</v>
       </c>
       <c r="F22">
-        <v>35.1968706876541</v>
+        <v>24.48794773435824</v>
       </c>
       <c r="G22">
-        <v>3.664855986422603</v>
+        <v>2.083060869263032</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>27.82305314099645</v>
+        <v>16.38937876852031</v>
       </c>
       <c r="J22">
-        <v>10.87228676062731</v>
+        <v>6.630402537741424</v>
       </c>
       <c r="K22">
-        <v>11.01449426066945</v>
+        <v>16.03214553102417</v>
       </c>
       <c r="L22">
-        <v>10.34639750182378</v>
+        <v>7.766190234783204</v>
       </c>
       <c r="M22">
-        <v>15.34319343834105</v>
+        <v>11.46823605157658</v>
       </c>
       <c r="N22">
-        <v>20.90644357227813</v>
+        <v>12.7842752080273</v>
       </c>
       <c r="O22">
-        <v>26.58218063881876</v>
+        <v>17.67026748427596</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.40618353164785</v>
+        <v>14.07093658503476</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.011271390474519</v>
+        <v>5.6840572466657</v>
       </c>
       <c r="E23">
-        <v>14.41060069640669</v>
+        <v>8.535457780532044</v>
       </c>
       <c r="F23">
-        <v>35.21062723712166</v>
+        <v>24.35811811279468</v>
       </c>
       <c r="G23">
-        <v>3.665514639713864</v>
+        <v>2.084958836381367</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>27.85787240328179</v>
+        <v>16.46452389699348</v>
       </c>
       <c r="J23">
-        <v>10.87634527231929</v>
+        <v>6.641235095806933</v>
       </c>
       <c r="K23">
-        <v>10.918262164042</v>
+        <v>15.75985464844847</v>
       </c>
       <c r="L23">
-        <v>10.33488644229742</v>
+        <v>7.677786427850513</v>
       </c>
       <c r="M23">
-        <v>15.32577094911735</v>
+        <v>11.33876194015799</v>
       </c>
       <c r="N23">
-        <v>20.92881988049293</v>
+        <v>12.86660395669432</v>
       </c>
       <c r="O23">
-        <v>26.59888168581204</v>
+        <v>17.60850280344519</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.2024220413439</v>
+        <v>13.18079086908108</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.014567935699734</v>
+        <v>5.582736568478156</v>
       </c>
       <c r="E24">
-        <v>14.44684055740348</v>
+        <v>8.610332758444155</v>
       </c>
       <c r="F24">
-        <v>35.27452587207969</v>
+        <v>23.89769828133862</v>
       </c>
       <c r="G24">
-        <v>3.668109011740916</v>
+        <v>2.092276915529668</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>27.99636287045945</v>
+        <v>16.76697092753958</v>
       </c>
       <c r="J24">
-        <v>10.89238333382542</v>
+        <v>6.683538429245092</v>
       </c>
       <c r="K24">
-        <v>10.54782955239953</v>
+        <v>14.68590116334017</v>
       </c>
       <c r="L24">
-        <v>10.29331166807654</v>
+        <v>7.338326032466187</v>
       </c>
       <c r="M24">
-        <v>15.26267153225045</v>
+        <v>10.84090038629491</v>
       </c>
       <c r="N24">
-        <v>21.01646684098922</v>
+        <v>13.1820246891368</v>
       </c>
       <c r="O24">
-        <v>26.67055488463982</v>
+        <v>17.40046903413225</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.98696826320061</v>
+        <v>12.16224801952887</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.021411834761617</v>
+        <v>5.478274815695949</v>
       </c>
       <c r="E25">
-        <v>14.48947874396593</v>
+        <v>8.698251578531547</v>
       </c>
       <c r="F25">
-        <v>35.36864701960896</v>
+        <v>23.46635786190766</v>
       </c>
       <c r="G25">
-        <v>3.671122181415791</v>
+        <v>2.10046826410454</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.15991340799543</v>
+        <v>17.1287784719175</v>
       </c>
       <c r="J25">
-        <v>10.9111163659411</v>
+        <v>6.731895958598834</v>
       </c>
       <c r="K25">
-        <v>10.13768938658819</v>
+        <v>13.43593909583698</v>
       </c>
       <c r="L25">
-        <v>10.25291590449301</v>
+        <v>6.963855271109311</v>
       </c>
       <c r="M25">
-        <v>15.20097497992873</v>
+        <v>10.29034150567321</v>
       </c>
       <c r="N25">
-        <v>21.11724271355905</v>
+        <v>13.5307797024209</v>
       </c>
       <c r="O25">
-        <v>26.76583050629356</v>
+        <v>17.22866948573403</v>
       </c>
     </row>
   </sheetData>
